--- a/Documents/Incompatible Programs.xlsx
+++ b/Documents/Incompatible Programs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
@@ -11,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Programa</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Cygwin</t>
+  </si>
+  <si>
+    <t>Concluído</t>
   </si>
 </sst>
 </file>
@@ -488,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -720,7 +726,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -760,6 +766,14 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
         <v>3</v>
       </c>
     </row>
